--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Sensitivity Results/Pumpfed Irrigation for Maize - Investment in wells @2012.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Sensitivity Results/Pumpfed Irrigation for Maize - Investment in wells @2012.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Investment</t>
   </si>
@@ -106,37 +106,31 @@
     <t>Investment in wells @2012</t>
   </si>
   <si>
-    <t>1018.0094403455696</t>
-  </si>
-  <si>
-    <t>1268.0094403455696</t>
-  </si>
-  <si>
-    <t>1518.0094403455696</t>
-  </si>
-  <si>
-    <t>1768.0094403455696</t>
-  </si>
-  <si>
-    <t>18.00944034556968</t>
-  </si>
-  <si>
-    <t>2018.0094403455696</t>
-  </si>
-  <si>
-    <t>2268.0094403455696</t>
-  </si>
-  <si>
-    <t>2518.0094403455696</t>
-  </si>
-  <si>
-    <t>268.00944034556966</t>
-  </si>
-  <si>
-    <t>518.0094403455696</t>
-  </si>
-  <si>
-    <t>768.0094403455696</t>
+    <t>1168.1637077985365</t>
+  </si>
+  <si>
+    <t>1418.1637077985365</t>
+  </si>
+  <si>
+    <t>1668.1637077985365</t>
+  </si>
+  <si>
+    <t>1918.1637077985365</t>
+  </si>
+  <si>
+    <t>2168.1637077985365</t>
+  </si>
+  <si>
+    <t>2418.1637077985365</t>
+  </si>
+  <si>
+    <t>418.1637077985364</t>
+  </si>
+  <si>
+    <t>668.1637077985364</t>
+  </si>
+  <si>
+    <t>918.1637077985364</t>
   </si>
 </sst>
 </file>
@@ -494,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,70 +643,70 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>322.6306841709884</v>
+        <v>370.2180366253306</v>
       </c>
       <c r="E4">
-        <v>233.4946939001675</v>
+        <v>219.5608014387253</v>
       </c>
       <c r="F4">
-        <v>0.7237212867714081</v>
+        <v>0.5930580893359501</v>
       </c>
       <c r="G4">
-        <v>1.381747391265909</v>
+        <v>1.686175465745193</v>
       </c>
       <c r="H4">
-        <v>-505.6687306948152</v>
+        <v>-505.7515087633074</v>
       </c>
       <c r="I4">
-        <v>416.9766093008802</v>
+        <v>410.6044530942745</v>
       </c>
       <c r="J4">
-        <v>59.17558857006406</v>
+        <v>59.16606537380812</v>
       </c>
       <c r="K4">
-        <v>3.08689386426704</v>
+        <v>-1.849243772085174</v>
       </c>
       <c r="L4">
-        <v>128.4682959355705</v>
+        <v>123.2800417687104</v>
       </c>
       <c r="M4">
-        <v>97.1888467247918</v>
+        <v>95.6694372685597</v>
       </c>
       <c r="N4">
-        <v>0.3181525243853685</v>
+        <v>0.3650793576380238</v>
       </c>
       <c r="O4">
-        <v>10.96122010354884</v>
+        <v>12.57797718833899</v>
       </c>
       <c r="P4">
-        <v>0.004544462275589467</v>
+        <v>0.005214760975832178</v>
       </c>
       <c r="Q4">
-        <v>262.3102735054708</v>
+        <v>301.0004912997683</v>
       </c>
       <c r="R4">
-        <v>0.1704540374194039</v>
+        <v>0.1955956521342159</v>
       </c>
       <c r="S4">
-        <v>0.7961436575569678</v>
+        <v>0.913573185185669</v>
       </c>
       <c r="T4">
-        <v>5057.005459472537</v>
+        <v>5057.880166990712</v>
       </c>
       <c r="U4">
-        <v>-4158.804872905253</v>
+        <v>-4093.466553754406</v>
       </c>
       <c r="V4">
-        <v>-591.7513412383651</v>
+        <v>-591.6554389771054</v>
       </c>
       <c r="W4">
-        <v>231.4413348628004</v>
+        <v>319.4929290206201</v>
       </c>
       <c r="X4">
-        <v>-971.7180132104986</v>
+        <v>-956.4987770334628</v>
       </c>
       <c r="Y4">
-        <v>-1283.886815698148</v>
+        <v>-1231.886844501918</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -722,70 +716,70 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>401.8614534017397</v>
+        <v>449.4488058560819</v>
       </c>
       <c r="E5">
-        <v>233.4946939001675</v>
+        <v>219.5608014387253</v>
       </c>
       <c r="F5">
-        <v>0.5810328209477298</v>
+        <v>0.488511257740511</v>
       </c>
       <c r="G5">
-        <v>1.72107317168226</v>
+        <v>2.047035731838105</v>
       </c>
       <c r="H5">
-        <v>-505.6687306948152</v>
+        <v>-505.7515087633074</v>
       </c>
       <c r="I5">
-        <v>416.9766093008802</v>
+        <v>410.6044530942745</v>
       </c>
       <c r="J5">
-        <v>59.17558857006406</v>
+        <v>59.16606537380812</v>
       </c>
       <c r="K5">
-        <v>3.08689386426704</v>
+        <v>-1.849243772085174</v>
       </c>
       <c r="L5">
-        <v>128.4682959355705</v>
+        <v>123.2800417687104</v>
       </c>
       <c r="M5">
-        <v>97.1888467247918</v>
+        <v>95.6694372685597</v>
       </c>
       <c r="N5">
-        <v>0.3962835592828924</v>
+        <v>0.4432103925064439</v>
       </c>
       <c r="O5">
-        <v>13.65304683649447</v>
+        <v>15.26980392127007</v>
       </c>
       <c r="P5">
-        <v>0.005660479006110108</v>
+        <v>0.006330777707262314</v>
       </c>
       <c r="Q5">
-        <v>326.7277197269286</v>
+        <v>365.4179375212116</v>
       </c>
       <c r="R5">
-        <v>0.2123136780792265</v>
+        <v>0.2374552927940385</v>
       </c>
       <c r="S5">
-        <v>0.9916584597958717</v>
+        <v>1.109087987410021</v>
       </c>
       <c r="T5">
-        <v>5057.083590507435</v>
+        <v>5057.95829802558</v>
       </c>
       <c r="U5">
-        <v>-4156.113046172308</v>
+        <v>-4090.774727021475</v>
       </c>
       <c r="V5">
-        <v>-591.7502252216345</v>
+        <v>-591.654322960374</v>
       </c>
       <c r="W5">
-        <v>295.8587810842582</v>
+        <v>383.9103752420633</v>
       </c>
       <c r="X5">
-        <v>-971.6761535698388</v>
+        <v>-956.456917392803</v>
       </c>
       <c r="Y5">
-        <v>-1283.691300895909</v>
+        <v>-1231.691329699694</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -795,70 +789,70 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>481.0922226325201</v>
+        <v>528.6795750868332</v>
       </c>
       <c r="E6">
-        <v>233.4946939001675</v>
+        <v>219.5608014387253</v>
       </c>
       <c r="F6">
-        <v>0.4853428987533669</v>
+        <v>0.4153003289424667</v>
       </c>
       <c r="G6">
-        <v>2.060398952098736</v>
+        <v>2.407895997931016</v>
       </c>
       <c r="H6">
-        <v>-505.6687306948152</v>
+        <v>-505.7515087633074</v>
       </c>
       <c r="I6">
-        <v>416.9766093008802</v>
+        <v>410.6044530942745</v>
       </c>
       <c r="J6">
-        <v>59.17558857006406</v>
+        <v>59.16606537380812</v>
       </c>
       <c r="K6">
-        <v>3.08689386426704</v>
+        <v>-1.849243772085174</v>
       </c>
       <c r="L6">
-        <v>128.4682959355705</v>
+        <v>123.2800417687104</v>
       </c>
       <c r="M6">
-        <v>97.1888467247918</v>
+        <v>95.6694372685597</v>
       </c>
       <c r="N6">
-        <v>0.4744145941513125</v>
+        <v>0.5213414273894159</v>
       </c>
       <c r="O6">
-        <v>16.34487356942554</v>
+        <v>17.96163065420114</v>
       </c>
       <c r="P6">
-        <v>0.006776495739359234</v>
+        <v>0.007446794437782955</v>
       </c>
       <c r="Q6">
-        <v>391.1451659483573</v>
+        <v>429.8353837426403</v>
       </c>
       <c r="R6">
-        <v>0.2541733187244972</v>
+        <v>0.2793149334465852</v>
       </c>
       <c r="S6">
-        <v>1.187173262020224</v>
+        <v>1.304602789648925</v>
       </c>
       <c r="T6">
-        <v>5057.161721542303</v>
+        <v>5058.036429060463</v>
       </c>
       <c r="U6">
-        <v>-4153.421219439377</v>
+        <v>-4088.082900288544</v>
       </c>
       <c r="V6">
-        <v>-591.7491092049013</v>
+        <v>-591.6532069436435</v>
       </c>
       <c r="W6">
-        <v>360.2762273056869</v>
+        <v>448.327821463492</v>
       </c>
       <c r="X6">
-        <v>-971.6342939291935</v>
+        <v>-956.4150577521505</v>
       </c>
       <c r="Y6">
-        <v>-1283.495786093685</v>
+        <v>-1231.495814897455</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -868,70 +862,70 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>560.3229918633006</v>
+        <v>607.9103443176427</v>
       </c>
       <c r="E7">
-        <v>233.4946939001675</v>
+        <v>219.5608014387253</v>
       </c>
       <c r="F7">
-        <v>0.4167144616423881</v>
+        <v>0.3611729977800828</v>
       </c>
       <c r="G7">
-        <v>2.399724732515211</v>
+        <v>2.768756264024193</v>
       </c>
       <c r="H7">
-        <v>-505.6687306948152</v>
+        <v>-505.7515087633074</v>
       </c>
       <c r="I7">
-        <v>416.9766093008802</v>
+        <v>410.6044530942745</v>
       </c>
       <c r="J7">
-        <v>59.17558857006406</v>
+        <v>59.16606537380812</v>
       </c>
       <c r="K7">
-        <v>3.08689386426704</v>
+        <v>-1.849243772085174</v>
       </c>
       <c r="L7">
-        <v>128.4682959355705</v>
+        <v>123.2800417687104</v>
       </c>
       <c r="M7">
-        <v>97.1888467247918</v>
+        <v>95.6694372685597</v>
       </c>
       <c r="N7">
-        <v>0.5525456290633883</v>
+        <v>0.5994724623014918</v>
       </c>
       <c r="O7">
-        <v>19.03670030235662</v>
+        <v>20.65345738714677</v>
       </c>
       <c r="P7">
-        <v>0.007892512471698865</v>
+        <v>0.008562811171032081</v>
       </c>
       <c r="Q7">
-        <v>455.5626121698006</v>
+        <v>494.2528299640835</v>
       </c>
       <c r="R7">
-        <v>0.2960329593843198</v>
+        <v>0.3211745740991319</v>
       </c>
       <c r="S7">
-        <v>1.382688064244576</v>
+        <v>1.500117591873277</v>
       </c>
       <c r="T7">
-        <v>5057.239852577215</v>
+        <v>5058.114560095375</v>
       </c>
       <c r="U7">
-        <v>-4150.729392706446</v>
+        <v>-4085.391073555598</v>
       </c>
       <c r="V7">
-        <v>-591.7479931881689</v>
+        <v>-591.6520909269102</v>
       </c>
       <c r="W7">
-        <v>424.6936735271302</v>
+        <v>512.7452676849352</v>
       </c>
       <c r="X7">
-        <v>-971.5924342885337</v>
+        <v>-956.3731981114979</v>
       </c>
       <c r="Y7">
-        <v>-1283.30027129146</v>
+        <v>-1231.30030009523</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -941,70 +935,70 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>5.707607247895794</v>
+        <v>687.1411135483941</v>
       </c>
       <c r="E8">
-        <v>233.4946939001675</v>
+        <v>219.5608014387253</v>
       </c>
       <c r="F8">
-        <v>40.90938352253464</v>
+        <v>0.3195279646489412</v>
       </c>
       <c r="G8">
-        <v>0.02444426960013116</v>
+        <v>3.129616530117104</v>
       </c>
       <c r="H8">
-        <v>-505.6687306948152</v>
+        <v>-505.7515087633074</v>
       </c>
       <c r="I8">
-        <v>416.9766093008802</v>
+        <v>410.6044530942745</v>
       </c>
       <c r="J8">
-        <v>59.17558857006406</v>
+        <v>59.16606537380812</v>
       </c>
       <c r="K8">
-        <v>3.08689386426704</v>
+        <v>-1.849243772085174</v>
       </c>
       <c r="L8">
-        <v>128.4682959355705</v>
+        <v>123.2800417687104</v>
       </c>
       <c r="M8">
-        <v>97.1888467247918</v>
+        <v>95.6694372685597</v>
       </c>
       <c r="N8">
-        <v>0.005628384824376553</v>
+        <v>0.6776034971844638</v>
       </c>
       <c r="O8">
-        <v>0.1939131718390854</v>
+        <v>23.3452841200633</v>
       </c>
       <c r="P8">
-        <v>8.039534532144899e-05</v>
+        <v>0.009678827905190701</v>
       </c>
       <c r="Q8">
-        <v>4.640488619741518</v>
+        <v>558.6702761855122</v>
       </c>
       <c r="R8">
-        <v>0.003015474809217267</v>
+        <v>0.3630342147516785</v>
       </c>
       <c r="S8">
-        <v>0.01408444867411163</v>
+        <v>1.695632394083077</v>
       </c>
       <c r="T8">
-        <v>5056.692935332976</v>
+        <v>5058.192691130258</v>
       </c>
       <c r="U8">
-        <v>-4169.572179836963</v>
+        <v>-4082.699246822682</v>
       </c>
       <c r="V8">
-        <v>-591.7558053052953</v>
+        <v>-591.650974910176</v>
       </c>
       <c r="W8">
-        <v>-26.22845002292888</v>
+        <v>577.1627139063639</v>
       </c>
       <c r="X8">
-        <v>-971.8854517731088</v>
+        <v>-956.3313384708454</v>
       </c>
       <c r="Y8">
-        <v>-1284.668874907031</v>
+        <v>-1231.104785293021</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1014,70 +1008,70 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>639.553761094081</v>
+        <v>766.3718827791454</v>
       </c>
       <c r="E9">
-        <v>233.4946939001675</v>
+        <v>219.5608014387253</v>
       </c>
       <c r="F9">
-        <v>0.3650900176096681</v>
+        <v>0.2864938111279832</v>
       </c>
       <c r="G9">
-        <v>2.739050512931687</v>
+        <v>3.490476796210015</v>
       </c>
       <c r="H9">
-        <v>-505.6687306948152</v>
+        <v>-505.7515087633074</v>
       </c>
       <c r="I9">
-        <v>416.9766093008802</v>
+        <v>410.6044530942745</v>
       </c>
       <c r="J9">
-        <v>59.17558857006406</v>
+        <v>59.16606537380812</v>
       </c>
       <c r="K9">
-        <v>3.08689386426704</v>
+        <v>-1.849243772085174</v>
       </c>
       <c r="L9">
-        <v>128.4682959355705</v>
+        <v>123.2800417687104</v>
       </c>
       <c r="M9">
-        <v>97.1888467247918</v>
+        <v>95.6694372685597</v>
       </c>
       <c r="N9">
-        <v>0.6306766639318084</v>
+        <v>0.7557345320674358</v>
       </c>
       <c r="O9">
-        <v>21.7285270353168</v>
+        <v>26.03711085299437</v>
       </c>
       <c r="P9">
-        <v>0.009008529203129001</v>
+        <v>0.01079484463571134</v>
       </c>
       <c r="Q9">
-        <v>519.9800583912292</v>
+        <v>623.0877224069554</v>
       </c>
       <c r="R9">
-        <v>0.3378926000441425</v>
+        <v>0.4048938554115011</v>
       </c>
       <c r="S9">
-        <v>1.578202866468928</v>
+        <v>1.891147196307429</v>
       </c>
       <c r="T9">
-        <v>5057.317983612083</v>
+        <v>5058.270822165141</v>
       </c>
       <c r="U9">
-        <v>-4148.037565973485</v>
+        <v>-4080.007420089751</v>
       </c>
       <c r="V9">
-        <v>-591.7468771714375</v>
+        <v>-591.6498588934455</v>
       </c>
       <c r="W9">
-        <v>489.1111197485588</v>
+        <v>641.5801601278072</v>
       </c>
       <c r="X9">
-        <v>-971.5505746478739</v>
+        <v>-956.2894788301855</v>
       </c>
       <c r="Y9">
-        <v>-1283.104756489236</v>
+        <v>-1230.909270490796</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1087,70 +1081,70 @@
         <v>36</v>
       </c>
       <c r="D10">
-        <v>718.7845303248323</v>
+        <v>132.5257289329893</v>
       </c>
       <c r="E10">
-        <v>233.4946939001675</v>
+        <v>219.5608014387253</v>
       </c>
       <c r="F10">
-        <v>0.3248465764763285</v>
+        <v>1.656740945373292</v>
       </c>
       <c r="G10">
-        <v>3.078376293348038</v>
+        <v>0.6035946674660612</v>
       </c>
       <c r="H10">
-        <v>-505.6687306948152</v>
+        <v>-505.7515087633074</v>
       </c>
       <c r="I10">
-        <v>416.9766093008802</v>
+        <v>410.6044530942745</v>
       </c>
       <c r="J10">
-        <v>59.17558857006406</v>
+        <v>59.16606537380812</v>
       </c>
       <c r="K10">
-        <v>3.08689386426704</v>
+        <v>-1.849243772085174</v>
       </c>
       <c r="L10">
-        <v>128.4682959355705</v>
+        <v>123.2800417687104</v>
       </c>
       <c r="M10">
-        <v>97.1888467247918</v>
+        <v>95.6694372685597</v>
       </c>
       <c r="N10">
-        <v>0.7088076988293324</v>
+        <v>0.1306862529891077</v>
       </c>
       <c r="O10">
-        <v>24.42035376821877</v>
+        <v>4.502496989560314</v>
       </c>
       <c r="P10">
-        <v>0.01012454593637813</v>
+        <v>0.001866710776994296</v>
       </c>
       <c r="Q10">
-        <v>584.3975046126579</v>
+        <v>107.7481526354532</v>
       </c>
       <c r="R10">
-        <v>0.3797522406966891</v>
+        <v>0.07001673016929999</v>
       </c>
       <c r="S10">
-        <v>1.77371766869328</v>
+        <v>0.3270287785126129</v>
       </c>
       <c r="T10">
-        <v>5057.396114646981</v>
+        <v>5057.645773886063</v>
       </c>
       <c r="U10">
-        <v>-4145.345739240583</v>
+        <v>-4101.542033953185</v>
       </c>
       <c r="V10">
-        <v>-591.7457611547043</v>
+        <v>-591.6587870273042</v>
       </c>
       <c r="W10">
-        <v>553.5285659699875</v>
+        <v>126.2405903563049</v>
       </c>
       <c r="X10">
-        <v>-971.5087150072213</v>
+        <v>-956.6243559554277</v>
       </c>
       <c r="Y10">
-        <v>-1282.909241687012</v>
+        <v>-1232.473388908591</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1160,70 +1154,70 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>798.0152995556127</v>
+        <v>211.7564981637697</v>
       </c>
       <c r="E11">
-        <v>233.4946939001675</v>
+        <v>219.5608014387253</v>
       </c>
       <c r="F11">
-        <v>0.2925942573158593</v>
+        <v>1.036855082807989</v>
       </c>
       <c r="G11">
-        <v>3.417702073764513</v>
+        <v>0.9644549335591053</v>
       </c>
       <c r="H11">
-        <v>-505.6687306948152</v>
+        <v>-505.7515087633074</v>
       </c>
       <c r="I11">
-        <v>416.9766093008802</v>
+        <v>410.6044530942745</v>
       </c>
       <c r="J11">
-        <v>59.17558857006406</v>
+        <v>59.16606537380812</v>
       </c>
       <c r="K11">
-        <v>3.08689386426704</v>
+        <v>-1.849243772085174</v>
       </c>
       <c r="L11">
-        <v>128.4682959355705</v>
+        <v>123.2800417687104</v>
       </c>
       <c r="M11">
-        <v>97.1888467247918</v>
+        <v>95.6694372685597</v>
       </c>
       <c r="N11">
-        <v>0.7869387337123044</v>
+        <v>0.2088172878575278</v>
       </c>
       <c r="O11">
-        <v>27.11218050114985</v>
+        <v>7.19432372249139</v>
       </c>
       <c r="P11">
-        <v>0.01124056266780826</v>
+        <v>0.002982727510243421</v>
       </c>
       <c r="Q11">
-        <v>648.8149508341157</v>
+        <v>172.1655988568964</v>
       </c>
       <c r="R11">
-        <v>0.4216118813492358</v>
+        <v>0.1118763708291226</v>
       </c>
       <c r="S11">
-        <v>1.969232470932184</v>
+        <v>0.5225435807369649</v>
       </c>
       <c r="T11">
-        <v>5057.474245681864</v>
+        <v>5057.723904920931</v>
       </c>
       <c r="U11">
-        <v>-4142.653912507652</v>
+        <v>-4098.850207220254</v>
       </c>
       <c r="V11">
-        <v>-591.7446451379728</v>
+        <v>-591.657671010571</v>
       </c>
       <c r="W11">
-        <v>617.9460121914453</v>
+        <v>190.6580365777481</v>
       </c>
       <c r="X11">
-        <v>-971.4668553665688</v>
+        <v>-956.5824963147679</v>
       </c>
       <c r="Y11">
-        <v>-1282.713726884773</v>
+        <v>-1232.277874106367</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1233,222 +1227,76 @@
         <v>38</v>
       </c>
       <c r="D12">
-        <v>84.93837647870532</v>
+        <v>290.9872673945792</v>
       </c>
       <c r="E12">
-        <v>233.4946939001675</v>
+        <v>219.5608014387253</v>
       </c>
       <c r="F12">
-        <v>2.748989368294628</v>
+        <v>0.7545374868275611</v>
       </c>
       <c r="G12">
-        <v>0.3637700500167315</v>
+        <v>1.325315199652282</v>
       </c>
       <c r="H12">
-        <v>-505.6687306948152</v>
+        <v>-505.7515087633074</v>
       </c>
       <c r="I12">
-        <v>416.9766093008802</v>
+        <v>410.6044530942745</v>
       </c>
       <c r="J12">
-        <v>59.17558857006406</v>
+        <v>59.16606537380812</v>
       </c>
       <c r="K12">
-        <v>3.08689386426704</v>
+        <v>-1.849243772085174</v>
       </c>
       <c r="L12">
-        <v>128.4682959355705</v>
+        <v>123.2800417687104</v>
       </c>
       <c r="M12">
-        <v>97.1888467247918</v>
+        <v>95.6694372685597</v>
       </c>
       <c r="N12">
-        <v>0.08375941972190049</v>
+        <v>0.2869483227404999</v>
       </c>
       <c r="O12">
-        <v>2.88573990475561</v>
+        <v>9.886150455407915</v>
       </c>
       <c r="P12">
-        <v>0.001196412076751585</v>
+        <v>0.004098744242583052</v>
       </c>
       <c r="Q12">
-        <v>69.05793484117021</v>
+        <v>236.5830450783396</v>
       </c>
       <c r="R12">
-        <v>0.04487511545448797</v>
+        <v>0.1537360114816693</v>
       </c>
       <c r="S12">
-        <v>0.2095992508984637</v>
+        <v>0.718058382961317</v>
       </c>
       <c r="T12">
-        <v>5056.771066367874</v>
+        <v>5057.802035955814</v>
       </c>
       <c r="U12">
-        <v>-4166.880353104047</v>
+        <v>-4096.158380487337</v>
       </c>
       <c r="V12">
-        <v>-591.7546892885639</v>
+        <v>-591.6565549938387</v>
       </c>
       <c r="W12">
-        <v>38.18899619849981</v>
+        <v>255.0754827991914</v>
       </c>
       <c r="X12">
-        <v>-971.8435921324635</v>
+        <v>-956.5406366741154</v>
       </c>
       <c r="Y12">
-        <v>-1284.473360104806</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>164.1691457094566</v>
-      </c>
-      <c r="E13">
-        <v>233.4946939001675</v>
-      </c>
-      <c r="F13">
-        <v>1.422281226421205</v>
-      </c>
-      <c r="G13">
-        <v>0.7030958304330824</v>
-      </c>
-      <c r="H13">
-        <v>-505.6687306948152</v>
-      </c>
-      <c r="I13">
-        <v>416.9766093008802</v>
-      </c>
-      <c r="J13">
-        <v>59.17558857006406</v>
-      </c>
-      <c r="K13">
-        <v>3.08689386426704</v>
-      </c>
-      <c r="L13">
-        <v>128.4682959355705</v>
-      </c>
-      <c r="M13">
-        <v>97.1888467247918</v>
-      </c>
-      <c r="N13">
-        <v>0.1618904546194244</v>
-      </c>
-      <c r="O13">
-        <v>5.57756663771579</v>
-      </c>
-      <c r="P13">
-        <v>0.002312428810000711</v>
-      </c>
-      <c r="Q13">
-        <v>133.4753810625989</v>
-      </c>
-      <c r="R13">
-        <v>0.08673475611431058</v>
-      </c>
-      <c r="S13">
-        <v>0.4051140531228157</v>
-      </c>
-      <c r="T13">
-        <v>5056.849197402771</v>
-      </c>
-      <c r="U13">
-        <v>-4164.188526371086</v>
-      </c>
-      <c r="V13">
-        <v>-591.7535732718306</v>
-      </c>
-      <c r="W13">
-        <v>102.6064424199285</v>
-      </c>
-      <c r="X13">
-        <v>-971.8017324918037</v>
-      </c>
-      <c r="Y13">
-        <v>-1284.277845302582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>243.399914940208</v>
-      </c>
-      <c r="E14">
-        <v>233.4946939001675</v>
-      </c>
-      <c r="F14">
-        <v>0.9593047473230476</v>
-      </c>
-      <c r="G14">
-        <v>1.042421610849434</v>
-      </c>
-      <c r="H14">
-        <v>-505.6687306948152</v>
-      </c>
-      <c r="I14">
-        <v>416.9766093008802</v>
-      </c>
-      <c r="J14">
-        <v>59.17558857006406</v>
-      </c>
-      <c r="K14">
-        <v>3.08689386426704</v>
-      </c>
-      <c r="L14">
-        <v>128.4682959355705</v>
-      </c>
-      <c r="M14">
-        <v>97.1888467247918</v>
-      </c>
-      <c r="N14">
-        <v>0.2400214894878445</v>
-      </c>
-      <c r="O14">
-        <v>8.269393370661419</v>
-      </c>
-      <c r="P14">
-        <v>0.003428445542340341</v>
-      </c>
-      <c r="Q14">
-        <v>197.8928272840421</v>
-      </c>
-      <c r="R14">
-        <v>0.1285943967668572</v>
-      </c>
-      <c r="S14">
-        <v>0.6006288553471677</v>
-      </c>
-      <c r="T14">
-        <v>5056.92732843764</v>
-      </c>
-      <c r="U14">
-        <v>-4161.496699638141</v>
-      </c>
-      <c r="V14">
-        <v>-591.7524572550983</v>
-      </c>
-      <c r="W14">
-        <v>167.0238886413717</v>
-      </c>
-      <c r="X14">
-        <v>-971.7598728511512</v>
-      </c>
-      <c r="Y14">
-        <v>-1284.082330500358</v>
+        <v>-1232.082359304142</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B4:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Sensitivity Results/Pumpfed Irrigation for Maize - Investment in wells @2012.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Pumpfed Irrigation for Maize/Sensitivity Results/Pumpfed Irrigation for Maize - Investment in wells @2012.xlsx
@@ -94,7 +94,7 @@
     <t>Mm3</t>
   </si>
   <si>
-    <t>ktonCO2_eq</t>
+    <t>kton</t>
   </si>
   <si>
     <t>kha</t>
@@ -655,10 +655,10 @@
         <v>1.686175465745193</v>
       </c>
       <c r="H4">
-        <v>-505.7515087633074</v>
+        <v>-512.7444546543848</v>
       </c>
       <c r="I4">
-        <v>410.6044530942745</v>
+        <v>-14.6909844997499</v>
       </c>
       <c r="J4">
         <v>59.16606537380812</v>
@@ -673,10 +673,10 @@
         <v>95.6694372685597</v>
       </c>
       <c r="N4">
-        <v>0.3650793576380238</v>
+        <v>0.1054384912204114</v>
       </c>
       <c r="O4">
-        <v>12.57797718833899</v>
+        <v>46.40450788681483</v>
       </c>
       <c r="P4">
         <v>0.005214760975832178</v>
@@ -691,10 +691,10 @@
         <v>0.913573185185669</v>
       </c>
       <c r="T4">
-        <v>5057.880166990712</v>
+        <v>5127.549985035068</v>
       </c>
       <c r="U4">
-        <v>-4093.466553754406</v>
+        <v>193.3143528843138</v>
       </c>
       <c r="V4">
         <v>-591.6554389771054</v>
@@ -728,10 +728,10 @@
         <v>2.047035731838105</v>
       </c>
       <c r="H5">
-        <v>-505.7515087633074</v>
+        <v>-512.7444546543848</v>
       </c>
       <c r="I5">
-        <v>410.6044530942745</v>
+        <v>-14.6909844997499</v>
       </c>
       <c r="J5">
         <v>59.16606537380812</v>
@@ -746,10 +746,10 @@
         <v>95.6694372685597</v>
       </c>
       <c r="N5">
-        <v>0.4432103925064439</v>
+        <v>0.1280034986848477</v>
       </c>
       <c r="O5">
-        <v>15.26980392127007</v>
+        <v>56.33558766121132</v>
       </c>
       <c r="P5">
         <v>0.006330777707262314</v>
@@ -764,10 +764,10 @@
         <v>1.109087987410021</v>
       </c>
       <c r="T5">
-        <v>5057.95829802558</v>
+        <v>5127.572550042532</v>
       </c>
       <c r="U5">
-        <v>-4090.774727021475</v>
+        <v>203.2454326587103</v>
       </c>
       <c r="V5">
         <v>-591.654322960374</v>
@@ -801,10 +801,10 @@
         <v>2.407895997931016</v>
       </c>
       <c r="H6">
-        <v>-505.7515087633074</v>
+        <v>-512.7444546543848</v>
       </c>
       <c r="I6">
-        <v>410.6044530942745</v>
+        <v>-14.6909844997499</v>
       </c>
       <c r="J6">
         <v>59.16606537380812</v>
@@ -819,10 +819,10 @@
         <v>95.6694372685597</v>
       </c>
       <c r="N6">
-        <v>0.5213414273894159</v>
+        <v>0.150568506163836</v>
       </c>
       <c r="O6">
-        <v>17.96163065420114</v>
+        <v>66.26666743561509</v>
       </c>
       <c r="P6">
         <v>0.007446794437782955</v>
@@ -837,10 +837,10 @@
         <v>1.304602789648925</v>
       </c>
       <c r="T6">
-        <v>5058.036429060463</v>
+        <v>5127.595115050011</v>
       </c>
       <c r="U6">
-        <v>-4088.082900288544</v>
+        <v>213.1765124331141</v>
       </c>
       <c r="V6">
         <v>-591.6532069436435</v>
@@ -874,10 +874,10 @@
         <v>2.768756264024193</v>
       </c>
       <c r="H7">
-        <v>-505.7515087633074</v>
+        <v>-512.7444546543848</v>
       </c>
       <c r="I7">
-        <v>410.6044530942745</v>
+        <v>-14.6909844997499</v>
       </c>
       <c r="J7">
         <v>59.16606537380812</v>
@@ -892,10 +892,10 @@
         <v>95.6694372685597</v>
       </c>
       <c r="N7">
-        <v>0.5994724623014918</v>
+        <v>0.1731335136428243</v>
       </c>
       <c r="O7">
-        <v>20.65345738714677</v>
+        <v>76.19774721001158</v>
       </c>
       <c r="P7">
         <v>0.008562811171032081</v>
@@ -910,10 +910,10 @@
         <v>1.500117591873277</v>
       </c>
       <c r="T7">
-        <v>5058.114560095375</v>
+        <v>5127.61768005749</v>
       </c>
       <c r="U7">
-        <v>-4085.391073555598</v>
+        <v>223.1075922075106</v>
       </c>
       <c r="V7">
         <v>-591.6520909269102</v>
@@ -947,10 +947,10 @@
         <v>3.129616530117104</v>
       </c>
       <c r="H8">
-        <v>-505.7515087633074</v>
+        <v>-512.7444546543848</v>
       </c>
       <c r="I8">
-        <v>410.6044530942745</v>
+        <v>-14.6909844997499</v>
       </c>
       <c r="J8">
         <v>59.16606537380812</v>
@@ -965,10 +965,10 @@
         <v>95.6694372685597</v>
       </c>
       <c r="N8">
-        <v>0.6776034971844638</v>
+        <v>0.1956985211145366</v>
       </c>
       <c r="O8">
-        <v>23.3452841200633</v>
+        <v>86.1288269844008</v>
       </c>
       <c r="P8">
         <v>0.009678827905190701</v>
@@ -983,10 +983,10 @@
         <v>1.695632394083077</v>
       </c>
       <c r="T8">
-        <v>5058.192691130258</v>
+        <v>5127.640245064962</v>
       </c>
       <c r="U8">
-        <v>-4082.699246822682</v>
+        <v>233.0386719818998</v>
       </c>
       <c r="V8">
         <v>-591.650974910176</v>
@@ -1020,10 +1020,10 @@
         <v>3.490476796210015</v>
       </c>
       <c r="H9">
-        <v>-505.7515087633074</v>
+        <v>-512.7444546543848</v>
       </c>
       <c r="I9">
-        <v>410.6044530942745</v>
+        <v>-14.6909844997499</v>
       </c>
       <c r="J9">
         <v>59.16606537380812</v>
@@ -1038,10 +1038,10 @@
         <v>95.6694372685597</v>
       </c>
       <c r="N9">
-        <v>0.7557345320674358</v>
+        <v>0.2182635285862489</v>
       </c>
       <c r="O9">
-        <v>26.03711085299437</v>
+        <v>96.05990675880457</v>
       </c>
       <c r="P9">
         <v>0.01079484463571134</v>
@@ -1056,10 +1056,10 @@
         <v>1.891147196307429</v>
       </c>
       <c r="T9">
-        <v>5058.270822165141</v>
+        <v>5127.662810072434</v>
       </c>
       <c r="U9">
-        <v>-4080.007420089751</v>
+        <v>242.9697517563036</v>
       </c>
       <c r="V9">
         <v>-591.6498588934455</v>
@@ -1093,10 +1093,10 @@
         <v>0.6035946674660612</v>
       </c>
       <c r="H10">
-        <v>-505.7515087633074</v>
+        <v>-512.7444546543848</v>
       </c>
       <c r="I10">
-        <v>410.6044530942745</v>
+        <v>-14.6909844997499</v>
       </c>
       <c r="J10">
         <v>59.16606537380812</v>
@@ -1111,10 +1111,10 @@
         <v>95.6694372685597</v>
       </c>
       <c r="N10">
-        <v>0.1306862529891077</v>
+        <v>0.03774346878344659</v>
       </c>
       <c r="O10">
-        <v>4.502496989560314</v>
+        <v>16.61126856361807</v>
       </c>
       <c r="P10">
         <v>0.001866710776994296</v>
@@ -1129,10 +1129,10 @@
         <v>0.3270287785126129</v>
       </c>
       <c r="T10">
-        <v>5057.645773886063</v>
+        <v>5127.482290012631</v>
       </c>
       <c r="U10">
-        <v>-4101.542033953185</v>
+        <v>163.5211135611171</v>
       </c>
       <c r="V10">
         <v>-591.6587870273042</v>
@@ -1166,10 +1166,10 @@
         <v>0.9644549335591053</v>
       </c>
       <c r="H11">
-        <v>-505.7515087633074</v>
+        <v>-512.7444546543848</v>
       </c>
       <c r="I11">
-        <v>410.6044530942745</v>
+        <v>-14.6909844997499</v>
       </c>
       <c r="J11">
         <v>59.16606537380812</v>
@@ -1184,10 +1184,10 @@
         <v>95.6694372685597</v>
       </c>
       <c r="N11">
-        <v>0.2088172878575278</v>
+        <v>0.06030847624788294</v>
       </c>
       <c r="O11">
-        <v>7.19432372249139</v>
+        <v>26.54234833801456</v>
       </c>
       <c r="P11">
         <v>0.002982727510243421</v>
@@ -1202,10 +1202,10 @@
         <v>0.5225435807369649</v>
       </c>
       <c r="T11">
-        <v>5057.723904920931</v>
+        <v>5127.504855020095</v>
       </c>
       <c r="U11">
-        <v>-4098.850207220254</v>
+        <v>173.4521933355136</v>
       </c>
       <c r="V11">
         <v>-591.657671010571</v>
@@ -1239,10 +1239,10 @@
         <v>1.325315199652282</v>
       </c>
       <c r="H12">
-        <v>-505.7515087633074</v>
+        <v>-512.7444546543848</v>
       </c>
       <c r="I12">
-        <v>410.6044530942745</v>
+        <v>-14.6909844997499</v>
       </c>
       <c r="J12">
         <v>59.16606537380812</v>
@@ -1257,10 +1257,10 @@
         <v>95.6694372685597</v>
       </c>
       <c r="N12">
-        <v>0.2869483227404999</v>
+        <v>0.08287348373414716</v>
       </c>
       <c r="O12">
-        <v>9.886150455407915</v>
+        <v>36.47342811241106</v>
       </c>
       <c r="P12">
         <v>0.004098744242583052</v>
@@ -1275,10 +1275,10 @@
         <v>0.718058382961317</v>
       </c>
       <c r="T12">
-        <v>5057.802035955814</v>
+        <v>5127.527420027582</v>
       </c>
       <c r="U12">
-        <v>-4096.158380487337</v>
+        <v>183.3832731099101</v>
       </c>
       <c r="V12">
         <v>-591.6565549938387</v>
